--- a/Cases/Auditflow/config.xlsx
+++ b/Cases/Auditflow/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21195" windowHeight="9442"/>
+    <workbookView windowWidth="15225" windowHeight="8602"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>姓名</t>
   </si>
@@ -31,7 +31,13 @@
     <t>00056062</t>
   </si>
   <si>
-    <t>a123456</t>
+    <t>Jxtr!2023</t>
+  </si>
+  <si>
+    <t>赵业来</t>
+  </si>
+  <si>
+    <t>00005901</t>
   </si>
   <si>
     <t>陈香伟</t>
@@ -40,6 +46,12 @@
     <t>00056488</t>
   </si>
   <si>
+    <t>祝星</t>
+  </si>
+  <si>
+    <t>00005952</t>
+  </si>
+  <si>
     <t>邱浩</t>
   </si>
   <si>
@@ -62,6 +74,24 @@
   </si>
   <si>
     <t>00056055</t>
+  </si>
+  <si>
+    <t>都卫国</t>
+  </si>
+  <si>
+    <t>00055929</t>
+  </si>
+  <si>
+    <t>熊寒青</t>
+  </si>
+  <si>
+    <t>00003188</t>
+  </si>
+  <si>
+    <t>洪育民</t>
+  </si>
+  <si>
+    <t>00000786</t>
   </si>
 </sst>
 </file>
@@ -74,13 +104,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF606266"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -535,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,34 +583,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,103 +619,115 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1003,13 +1048,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="10.5929203539823" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1022,34 +1070,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1057,10 +1123,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1068,10 +1134,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1079,12 +1145,45 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Cases/Auditflow/config.xlsx
+++ b/Cases/Auditflow/config.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15225" windowHeight="8602"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>姓名</t>
   </si>
@@ -25,86 +38,92 @@
     <t>密码</t>
   </si>
   <si>
-    <t>章爱军</t>
-  </si>
-  <si>
-    <t>00056062</t>
-  </si>
-  <si>
-    <t>Jxtr!2023</t>
-  </si>
-  <si>
-    <t>赵业来</t>
-  </si>
-  <si>
-    <t>00005901</t>
-  </si>
-  <si>
-    <t>陈香伟</t>
-  </si>
-  <si>
-    <t>00056488</t>
-  </si>
-  <si>
-    <t>祝星</t>
-  </si>
-  <si>
-    <t>00005952</t>
-  </si>
-  <si>
-    <t>邱浩</t>
-  </si>
-  <si>
-    <t>00055934</t>
-  </si>
-  <si>
-    <t>舒冬太</t>
-  </si>
-  <si>
-    <t>00002702</t>
-  </si>
-  <si>
-    <t>戚虹</t>
-  </si>
-  <si>
-    <t>00056052</t>
-  </si>
-  <si>
-    <t>陈小龙</t>
-  </si>
-  <si>
-    <t>00056055</t>
-  </si>
-  <si>
-    <t>都卫国</t>
-  </si>
-  <si>
-    <t>00055929</t>
-  </si>
-  <si>
-    <t>熊寒青</t>
-  </si>
-  <si>
-    <t>00003188</t>
-  </si>
-  <si>
-    <t>洪育民</t>
-  </si>
-  <si>
-    <t>00000786</t>
+    <t>陈悦</t>
+  </si>
+  <si>
+    <t>00050485</t>
+  </si>
+  <si>
+    <t>Aa123456?!</t>
+  </si>
+  <si>
+    <t>张希杰</t>
+  </si>
+  <si>
+    <t>00005678</t>
+  </si>
+  <si>
+    <t>方柳燕</t>
+  </si>
+  <si>
+    <t>00005688</t>
+  </si>
+  <si>
+    <t>段锦美</t>
+  </si>
+  <si>
+    <t>00000157</t>
+  </si>
+  <si>
+    <t>张旺</t>
+  </si>
+  <si>
+    <t>00016200</t>
+  </si>
+  <si>
+    <t>王少雯</t>
+  </si>
+  <si>
+    <t>00060841</t>
+  </si>
+  <si>
+    <t>龚雪</t>
+  </si>
+  <si>
+    <t>00051058</t>
+  </si>
+  <si>
+    <t>郑健</t>
+  </si>
+  <si>
+    <t>00000151</t>
+  </si>
+  <si>
+    <t>何厚达</t>
+  </si>
+  <si>
+    <t>00000041</t>
+  </si>
+  <si>
+    <t>危利民</t>
+  </si>
+  <si>
+    <t>00016365</t>
+  </si>
+  <si>
+    <t>王亚骏</t>
+  </si>
+  <si>
+    <t>00016208</t>
+  </si>
+  <si>
+    <t>卢毅豪</t>
+  </si>
+  <si>
+    <t>00053284</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,40 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF606266"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -160,14 +145,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,6 +189,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -257,7 +249,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,49 +285,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,121 +423,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,21 +476,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,6 +508,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,163 +581,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
@@ -732,52 +739,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1048,15 +1055,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.55833333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="10.5929203539823" customWidth="1"/>
+    <col min="3" max="3" width="10.5916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1070,52 +1077,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1123,10 +1112,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1134,10 +1123,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1145,10 +1134,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1156,10 +1145,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1167,25 +1156,61 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Cases/Auditflow/config.xlsx
+++ b/Cases/Auditflow/config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>姓名</t>
   </si>
@@ -38,79 +38,97 @@
     <t>密码</t>
   </si>
   <si>
-    <t>陈悦</t>
-  </si>
-  <si>
-    <t>00050485</t>
+    <t>张旺</t>
+  </si>
+  <si>
+    <t>00016200</t>
   </si>
   <si>
     <t>Aa123456?!</t>
   </si>
   <si>
+    <t>何厚达</t>
+  </si>
+  <si>
+    <t>00000041</t>
+  </si>
+  <si>
+    <t>卢毅豪</t>
+  </si>
+  <si>
+    <t>00053284</t>
+  </si>
+  <si>
+    <t>危利民</t>
+  </si>
+  <si>
+    <t>00016365</t>
+  </si>
+  <si>
+    <t>段聪颖</t>
+  </si>
+  <si>
+    <t>00050270</t>
+  </si>
+  <si>
+    <t>王亚骏</t>
+  </si>
+  <si>
+    <t>00016208</t>
+  </si>
+  <si>
+    <t>张晟</t>
+  </si>
+  <si>
+    <t>00005683</t>
+  </si>
+  <si>
+    <t>段锦美</t>
+  </si>
+  <si>
+    <t>00000157</t>
+  </si>
+  <si>
+    <t>蔡钰婷</t>
+  </si>
+  <si>
+    <t>00053059</t>
+  </si>
+  <si>
+    <t>郑健</t>
+  </si>
+  <si>
+    <t>00000151</t>
+  </si>
+  <si>
+    <t>王少雯</t>
+  </si>
+  <si>
+    <t>00060841</t>
+  </si>
+  <si>
+    <t>龚雪</t>
+  </si>
+  <si>
+    <t>00051058</t>
+  </si>
+  <si>
+    <t>方柳燕</t>
+  </si>
+  <si>
+    <t>00005688</t>
+  </si>
+  <si>
+    <t>苏华</t>
+  </si>
+  <si>
+    <t>00005681</t>
+  </si>
+  <si>
     <t>张希杰</t>
   </si>
   <si>
     <t>00005678</t>
-  </si>
-  <si>
-    <t>方柳燕</t>
-  </si>
-  <si>
-    <t>00005688</t>
-  </si>
-  <si>
-    <t>段锦美</t>
-  </si>
-  <si>
-    <t>00000157</t>
-  </si>
-  <si>
-    <t>张旺</t>
-  </si>
-  <si>
-    <t>00016200</t>
-  </si>
-  <si>
-    <t>王少雯</t>
-  </si>
-  <si>
-    <t>00060841</t>
-  </si>
-  <si>
-    <t>龚雪</t>
-  </si>
-  <si>
-    <t>00051058</t>
-  </si>
-  <si>
-    <t>郑健</t>
-  </si>
-  <si>
-    <t>00000151</t>
-  </si>
-  <si>
-    <t>何厚达</t>
-  </si>
-  <si>
-    <t>00000041</t>
-  </si>
-  <si>
-    <t>危利民</t>
-  </si>
-  <si>
-    <t>00016365</t>
-  </si>
-  <si>
-    <t>王亚骏</t>
-  </si>
-  <si>
-    <t>00016208</t>
-  </si>
-  <si>
-    <t>卢毅豪</t>
-  </si>
-  <si>
-    <t>00053284</t>
   </si>
 </sst>
 </file>
@@ -1055,15 +1073,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55833333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.55833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="10.5916666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1077,140 +1098,271 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>123456</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>123456</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>123456</v>
+      </c>
+      <c r="H3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>123456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>123456</v>
+      </c>
+      <c r="H4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>123456</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>123456</v>
+      </c>
+      <c r="H5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>123456</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>123456</v>
+      </c>
+      <c r="H6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>123456</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>123456</v>
+      </c>
+      <c r="H7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>123456</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>123456</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>123456</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8">
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>123456</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8">
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>123456</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8">
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G12">
+        <v>123456</v>
+      </c>
+      <c r="H12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="13" spans="5:8">
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>123456</v>
+      </c>
+      <c r="H13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1"/>
+    <row r="14" spans="5:8">
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>123456</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
